--- a/Field Rotation.xlsx
+++ b/Field Rotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yassi\Desktop\Field Rotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7E778-4CCD-4EE8-88E9-62945E281294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB88E2E-C854-4B54-977A-1689DFFEFA07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5928" yWindow="372" windowWidth="16788" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFR" sheetId="1" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,6 +333,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,7 +823,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,12 +883,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0</v>
       </c>
     </row>
@@ -945,8 +945,8 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
-        <v>44.2</v>
+      <c r="A12" s="14">
+        <v>2</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
@@ -986,15 +986,15 @@
       <c r="D14" s="7"/>
       <c r="E14" s="11">
         <f>DEGREES(F14)*3600</f>
-        <v>-10.988722331656344</v>
-      </c>
-      <c r="F14" s="14">
+        <v>0.37730050947606641</v>
+      </c>
+      <c r="F14" s="13">
         <f>(COS('Do not touch'!B2)*'Do not touch'!D6*(SIN('Do not touch'!D2)-'Do not touch'!A4)+'Do not touch'!C6*SIN('Do not touch'!B2)*(SIN('Do not touch'!D2)*'Do not touch'!A4-1))/SIN(ACOS('Do not touch'!C4))*'Do not touch'!C2</f>
-        <v>-5.3274829243008751E-5</v>
-      </c>
-      <c r="G14" s="12">
+        <v>1.8292044888359512E-6</v>
+      </c>
+      <c r="G14" s="15">
         <f>(2.44*560*POWER(10,-6))/(RADIANS(B23)*0.5*A23*ABS(F14))</f>
-        <v>9.9596577634965691</v>
+        <v>290.07094062334329</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
@@ -1037,7 +1037,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>31</v>
       </c>
       <c r="B17" s="6">
@@ -1110,12 +1110,12 @@
       <c r="B21" s="6">
         <v>14.8</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>250</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1142,14 +1142,14 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>58</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <f>(206265*(A21/C21)*(1/3600))</f>
         <v>5.0878700000000006</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <f>(206265*(B21/C21)*(1/3600))</f>
         <v>3.3919133333333336</v>
       </c>
@@ -1329,11 +1329,11 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>(RFR!A12+RFR!B12/60+RFR!C12/3600)*PI()/180</f>
-        <v>0.77143552938149373</v>
+        <v>3.4906585039886591E-2</v>
       </c>
       <c r="B2" s="6">
         <f>(RFR!A7*60*60+RFR!B7*60+RFR!C7)*15*PI()/(180*60*60)</f>
-        <v>3.926990816987241</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="C2" s="6">
         <f>2*PI()/(24*60*60)</f>
@@ -1361,19 +1361,19 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>(COS(B2)*COS(A2)+A6*D6*B4)/(C6*B6)</f>
-        <v>0.57389459571200052</v>
+        <v>0.52822116721377943</v>
       </c>
       <c r="B4" s="6">
         <f>COS(D2)*COS(B2)*COS(A2)+SIN(D2)*SIN(A2)</f>
-        <v>-6.1712353082164551E-2</v>
+        <v>1.8450849774734858E-2</v>
       </c>
       <c r="C4" s="6">
         <f>(SIN(D2)*SIN(B2)*D6+COS(B2)*C6)</f>
-        <v>0.79898488442559357</v>
+        <v>0.52845316676629606</v>
       </c>
       <c r="D4" s="6">
         <f>(ACOS(C4)*180/PI())</f>
-        <v>36.966724999525042</v>
+        <v>58.098999002966835</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1393,19 +1393,19 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>-(COS(D2)*SIN(B2)*COS(A2))/SIN(ACOS(B4))</f>
-        <v>0.4311149878700079</v>
+        <v>-0.84844529032553773</v>
       </c>
       <c r="B6" s="6">
         <f>COS(ASIN(B4))</f>
-        <v>0.9980939762753116</v>
+        <v>0.99982976858192718</v>
       </c>
       <c r="C6" s="6">
         <f>(SIN(D2)*COS(B2)*COS(A2)-COS(D2)*SIN(A2))/B6</f>
-        <v>-0.86141578862723855</v>
+        <v>-2.962836240981705E-2</v>
       </c>
       <c r="D6" s="6">
         <f>SIN(B2)*COS(A2)/B6</f>
-        <v>-0.50790042242915368</v>
+        <v>0.99956098370280178</v>
       </c>
     </row>
   </sheetData>
